--- a/GF Arquitetura (1).xlsx
+++ b/GF Arquitetura (1).xlsx
@@ -615,13 +615,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>162000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>819000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>799920</xdr:rowOff>
+      <xdr:rowOff>800280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -634,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="682560" y="1076040"/>
+          <a:off x="682560" y="1076400"/>
           <a:ext cx="657000" cy="657000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -689,13 +689,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1238400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>466560</xdr:rowOff>
+      <xdr:rowOff>466920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1552320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>923400</xdr:rowOff>
+      <xdr:rowOff>923760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -704,7 +704,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1758960" y="1399680"/>
+          <a:off x="1758960" y="1400040"/>
           <a:ext cx="313920" cy="456840"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -735,15 +735,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>562320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1335240</xdr:colOff>
+      <xdr:colOff>1335600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>790200</xdr:rowOff>
+      <xdr:rowOff>790560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -756,7 +756,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5007240" y="1028520"/>
+          <a:off x="5007600" y="1028880"/>
           <a:ext cx="773280" cy="694800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -774,13 +774,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -789,7 +789,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6986160" y="933120"/>
+          <a:off x="6986160" y="933480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -812,15 +812,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -829,7 +829,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9526680" y="933120"/>
+          <a:off x="9527040" y="933480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -852,15 +852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -869,7 +869,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11250720" y="933120"/>
+          <a:off x="11251080" y="933480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -894,13 +894,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>104760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1447560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>428400</xdr:rowOff>
+      <xdr:rowOff>428760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -913,7 +913,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7090920" y="1018800"/>
+          <a:off x="7090920" y="1019160"/>
           <a:ext cx="1342800" cy="342720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -931,13 +931,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -946,7 +946,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10285560" y="933120"/>
+          <a:off x="10285560" y="933480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -969,13 +969,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
@@ -986,7 +986,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11250720" y="4038480"/>
+          <a:off x="11251080" y="4038480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1046,15 +1046,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1579680</xdr:colOff>
+      <xdr:colOff>1580040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>561600</xdr:rowOff>
+      <xdr:rowOff>561960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1067,7 +1067,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11307960" y="980640"/>
+          <a:off x="11308320" y="981000"/>
           <a:ext cx="1522440" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1083,15 +1083,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>371520</xdr:rowOff>
+      <xdr:rowOff>371880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>819000</xdr:colOff>
+      <xdr:colOff>819360</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>999720</xdr:rowOff>
+      <xdr:rowOff>1000080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1104,7 +1104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11441520" y="1304640"/>
+          <a:off x="11441880" y="1305000"/>
           <a:ext cx="628200" cy="628200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1122,13 +1122,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>28440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>495360</xdr:rowOff>
+      <xdr:rowOff>495720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>964800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>780840</xdr:rowOff>
+      <xdr:rowOff>781200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1137,7 +1137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10314000" y="1428480"/>
+          <a:off x="10314000" y="1428840"/>
           <a:ext cx="936360" cy="285480"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -1174,7 +1174,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>713880</xdr:colOff>
+      <xdr:colOff>953640</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>637920</xdr:rowOff>
     </xdr:to>
@@ -1186,7 +1186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10304640" y="2448000"/>
-          <a:ext cx="694800" cy="294840"/>
+          <a:ext cx="934560" cy="294840"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
           <a:avLst>
@@ -1216,13 +1216,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>162000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1085400</xdr:colOff>
+      <xdr:colOff>1085760</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>780840</xdr:rowOff>
     </xdr:to>
@@ -1237,7 +1237,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11269080" y="3181320"/>
+          <a:off x="11269440" y="3181320"/>
           <a:ext cx="1067040" cy="618840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1533,13 +1533,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1162080</xdr:colOff>
+      <xdr:colOff>1162440</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>208440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1704600</xdr:colOff>
+      <xdr:colOff>1704960</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>837720</xdr:rowOff>
     </xdr:to>
@@ -1554,7 +1554,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12412800" y="3227760"/>
+          <a:off x="12413160" y="3227760"/>
           <a:ext cx="542520" cy="629280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1609,13 +1609,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>64080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1314000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>771120</xdr:rowOff>
+      <xdr:rowOff>771480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1628,7 +1628,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2693520" y="999720"/>
+          <a:off x="2693520" y="1000080"/>
           <a:ext cx="1249920" cy="704520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1644,13 +1644,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
@@ -1661,7 +1661,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445280" y="5848200"/>
+          <a:off x="4445640" y="6063480"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1684,15 +1684,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1701,7 +1701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445280" y="6229080"/>
+          <a:off x="4445640" y="6444720"/>
           <a:ext cx="304560" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1724,15 +1724,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1447560</xdr:colOff>
+      <xdr:colOff>1447920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>552240</xdr:rowOff>
+      <xdr:rowOff>552600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1745,7 +1745,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4949640" y="5000400"/>
+          <a:off x="4950000" y="5216040"/>
           <a:ext cx="943200" cy="495000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1763,13 +1763,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>609480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1275840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>485280</xdr:rowOff>
+      <xdr:rowOff>485640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1782,7 +1782,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7595640" y="5028480"/>
+          <a:off x="7595640" y="5244120"/>
           <a:ext cx="666360" cy="399960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1798,15 +1798,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:colOff>1133640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>733320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1819,7 +1819,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4664520" y="4238280"/>
+          <a:off x="4664880" y="4238640"/>
           <a:ext cx="914040" cy="914040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,13 +1837,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>542880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1114200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1014840</xdr:rowOff>
+      <xdr:rowOff>1015200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1856,7 +1856,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14448600" y="1047600"/>
+          <a:off x="14448600" y="1047960"/>
           <a:ext cx="1330200" cy="900360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1874,13 +1874,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>19080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>419040</xdr:rowOff>
+      <xdr:rowOff>419400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>758520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>771120</xdr:rowOff>
+      <xdr:rowOff>771480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1889,7 +1889,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13924800" y="1352160"/>
+          <a:off x="13924800" y="1352520"/>
           <a:ext cx="739440" cy="352080"/>
         </a:xfrm>
         <a:prstGeom prst="leftRightArrow">
@@ -1922,7 +1922,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>237960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -1941,8 +1941,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2867400" y="5009760"/>
-          <a:ext cx="885600" cy="675360"/>
+          <a:off x="2867400" y="5225400"/>
+          <a:ext cx="885600" cy="675000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,7 +1965,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>790200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1975,7 +1975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3172320" y="4038480"/>
-          <a:ext cx="247320" cy="418680"/>
+          <a:ext cx="247320" cy="419040"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst>
@@ -2042,15 +2042,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>444960</xdr:colOff>
+      <xdr:colOff>445320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>43200</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2059,7 +2059,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9971640" y="4276440"/>
+          <a:off x="9972000" y="4276800"/>
           <a:ext cx="357120" cy="253080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2108,15 +2108,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1714680</xdr:colOff>
+      <xdr:colOff>2324880</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
+      <xdr:colOff>172440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>847440</xdr:rowOff>
+      <xdr:rowOff>818640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2125,8 +2125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6159960" y="2143080"/>
-          <a:ext cx="997560" cy="809280"/>
+          <a:off x="6770160" y="2114280"/>
+          <a:ext cx="388440" cy="809280"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst>
@@ -2263,7 +2263,7 @@
   <dimension ref="B1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2369,7 +2369,7 @@
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="18"/>
     </row>
-    <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="58.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>6</v>
@@ -2443,7 +2443,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
